--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/metrics/Trial_428__Reeval_LHS_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/metrics/Trial_428__Reeval_LHS_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5899,13 +5899,13 @@
                   <c:v>347.7024536132812</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>351.9512023925781</c:v>
+                  <c:v>351.951171875</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>340.2085571289062</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>342.3382568359375</c:v>
+                  <c:v>342.3382873535156</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>357.7843627929688</c:v>
@@ -5914,7 +5914,7 @@
                   <c:v>356.1257629394531</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>355.6611328125</c:v>
+                  <c:v>355.6611022949219</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>350.8848266601562</c:v>
@@ -5965,7 +5965,7 @@
                   <c:v>354.4864501953125</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>357.7911376953125</c:v>
+                  <c:v>357.7911071777344</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>358.4273681640625</c:v>
@@ -6040,13 +6040,13 @@
                   <c:v>356.1319580078125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>356.8633117675781</c:v>
+                  <c:v>356.86328125</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>352.4340515136719</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>358.4021911621094</c:v>
+                  <c:v>358.4021606445312</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>339.6201171875</c:v>
@@ -6064,7 +6064,7 @@
                   <c:v>342.3758850097656</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>341.18505859375</c:v>
+                  <c:v>341.1850280761719</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>357.8662109375</c:v>
@@ -6085,7 +6085,7 @@
                   <c:v>357.8023376464844</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>351.1426696777344</c:v>
+                  <c:v>351.1426391601562</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>352.6156921386719</c:v>
@@ -6131,7 +6131,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6146,7 +6146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6175,7 +6175,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6190,7 +6190,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6219,7 +6219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6234,7 +6234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6746,13 +6746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H777"/>
+  <dimension ref="A1:S777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6777,8 +6777,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.739</v>
       </c>
@@ -6803,8 +6809,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.326</v>
       </c>
@@ -6829,8 +6841,14 @@
       <c r="H3">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>371</v>
+      </c>
+      <c r="S3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>340.662</v>
       </c>
@@ -6850,13 +6868,19 @@
         <v>355.2785949707031</v>
       </c>
       <c r="G4">
+        <v>371</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>336.328</v>
       </c>
@@ -6881,8 +6905,14 @@
       <c r="H5">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>371</v>
+      </c>
+      <c r="S5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>341.263</v>
       </c>
@@ -6902,13 +6932,19 @@
         <v>358.2907104492188</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>371</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>358.25</v>
       </c>
@@ -6933,8 +6969,14 @@
       <c r="H7">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>371</v>
+      </c>
+      <c r="S7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>355.891</v>
       </c>
@@ -6954,7 +6996,7 @@
         <v>339.7481994628906</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>340.957</v>
       </c>
@@ -6974,7 +7016,7 @@
         <v>356.1503601074219</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>365.59</v>
       </c>
@@ -6994,7 +7036,7 @@
         <v>341.1759033203125</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>359.512</v>
       </c>
@@ -7014,7 +7056,7 @@
         <v>354.0179748535156</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>349.72</v>
       </c>
@@ -7034,7 +7076,7 @@
         <v>347.4854125976562</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>355.672</v>
       </c>
@@ -7054,7 +7096,7 @@
         <v>349.7539672851562</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>359.602</v>
       </c>
@@ -7074,7 +7116,7 @@
         <v>358.373779296875</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>361.211</v>
       </c>
@@ -7094,7 +7136,7 @@
         <v>344.3023376464844</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>330.866</v>
       </c>
@@ -7391,7 +7433,7 @@
         <v>355.884</v>
       </c>
       <c r="F30">
-        <v>351.9512023925781</v>
+        <v>351.951171875</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7431,7 +7473,7 @@
         <v>359.242</v>
       </c>
       <c r="F32">
-        <v>342.3382568359375</v>
+        <v>342.3382873535156</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7491,7 +7533,7 @@
         <v>356.189</v>
       </c>
       <c r="F35">
-        <v>355.6611328125</v>
+        <v>355.6611022949219</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7831,7 +7873,7 @@
         <v>358.138</v>
       </c>
       <c r="F52">
-        <v>357.7911376953125</v>
+        <v>357.7911071777344</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8331,7 +8373,7 @@
         <v>358.462</v>
       </c>
       <c r="F77">
-        <v>356.8633117675781</v>
+        <v>356.86328125</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8371,7 +8413,7 @@
         <v>355.797</v>
       </c>
       <c r="F79">
-        <v>358.4021911621094</v>
+        <v>358.4021606445312</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8533,7 @@
         <v>357.481</v>
       </c>
       <c r="F85">
-        <v>341.18505859375</v>
+        <v>341.1850280761719</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8631,7 +8673,7 @@
         <v>360.171</v>
       </c>
       <c r="F92">
-        <v>351.1426696777344</v>
+        <v>351.1426391601562</v>
       </c>
     </row>
     <row r="93" spans="1:6">
